--- a/Documents/Measurements.xlsx
+++ b/Documents/Measurements.xlsx
@@ -118,9 +118,6 @@
     <t>&gt;&gt;20ms</t>
   </si>
   <si>
-    <t>No Power Supply</t>
-  </si>
-  <si>
     <t>-350mv</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>1.55ms</t>
+  </si>
+  <si>
+    <t>No Power Supply, Photovoltaic mode</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -334,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1644,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I1">
         <v>4225</v>
@@ -1653,14 +1653,14 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="17">
         <f>1000*1000/I1</f>
         <v>236.68639053254438</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1685,14 +1685,14 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" ref="L2:L3" si="0">1000*1000/I2</f>
         <v>16666.666666666668</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1711,14 +1711,14 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L3" s="17">
         <f t="shared" si="0"/>
         <v>8333.3333333333339</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1739,14 +1739,14 @@
         <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L4" s="17">
         <f>1000*1000/I4</f>
         <v>1000000</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1771,14 +1771,14 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="17">
         <f t="shared" ref="L5" si="1">1000*1000/I5</f>
         <v>1000000</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1833,10 +1833,10 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="17">
         <f>1000/I8</f>
@@ -1861,10 +1861,10 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="17">
         <f t="shared" ref="L9:L10" si="2">1000/I9</f>
@@ -1893,10 +1893,10 @@
         <v>1.5</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="17">
         <f t="shared" si="2"/>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="17">
         <f>1000/I11</f>
@@ -1966,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="17">
         <f t="shared" ref="L12:L13" si="3">1000/I12</f>
@@ -1992,10 +1992,10 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="17">
         <f t="shared" si="3"/>
@@ -2056,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="9"/>
@@ -2101,10 +2101,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2114,11 +2114,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>

--- a/Documents/Measurements.xlsx
+++ b/Documents/Measurements.xlsx
@@ -133,9 +133,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>Pattern to Pattern</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>No Power Supply, Photovoltaic mode</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1644,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1">
         <v>4225</v>
@@ -1660,7 +1660,7 @@
         <v>236.68639053254438</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>16666.666666666668</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -1718,7 +1718,7 @@
         <v>8333.3333333333339</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -1746,7 +1746,7 @@
         <v>1000000</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1774,11 +1774,11 @@
         <v>36</v>
       </c>
       <c r="L5" s="17">
-        <f t="shared" ref="L5" si="1">1000*1000/I5</f>
+        <f t="shared" ref="L5:L6" si="1">1000*1000/I5</f>
         <v>1000000</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -1805,6 +1805,13 @@
         <v>23</v>
       </c>
       <c r="H6" s="10"/>
+      <c r="I6">
+        <v>1080</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>925.92592592592598</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -1833,7 +1840,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>36</v>
@@ -1861,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -1893,7 +1900,7 @@
         <v>1.5</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>36</v>
@@ -1934,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>36</v>
@@ -1966,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>36</v>
@@ -1992,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>36</v>
@@ -2101,7 +2108,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>35</v>
@@ -2114,11 +2121,11 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
